--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure compute and networking services.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure compute and networking services.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA50E15-2188-4A6C-ABA2-52B3F219D216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CA58C7-7925-4A9E-AABC-3F3AF6064FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1470" windowWidth="22740" windowHeight="12285" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="1365" windowWidth="17460" windowHeight="11295" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Describe Azure virtual machines" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
   <si>
     <t>Azure Virtual Machines (VMs)</t>
     <phoneticPr fontId="2"/>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>alias record meaning</t>
+  </si>
+  <si>
+    <t>used to expose Azure services to a virtual network, providing communication between the two.</t>
   </si>
 </sst>
 </file>
@@ -963,13 +966,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>62531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1007,14 +1010,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>294381</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>228244</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190144</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1798,7 +1801,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1960,7 +1963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD15FB2-EA51-4E9C-B537-4CAB3A7B4FCA}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
@@ -2262,10 +2265,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="K8:N64"/>
+  <dimension ref="K8:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="F33" workbookViewId="0">
-      <selection activeCell="V43" sqref="V43"/>
+    <sheetView tabSelected="1" topLeftCell="I11" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2305,148 +2308,153 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="11:13">
+    <row r="17" spans="11:14">
       <c r="K17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="11:13">
+    <row r="18" spans="11:14">
       <c r="L18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="11:13">
+    <row r="19" spans="11:14">
       <c r="M19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="11:13">
+    <row r="20" spans="11:14">
       <c r="M20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="11:13">
-      <c r="K22" t="s">
+    <row r="21" spans="11:14">
+      <c r="N21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="11:14">
+      <c r="K23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="11:13">
-      <c r="L23" t="s">
+    <row r="24" spans="11:14">
+      <c r="L24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="11:13">
-      <c r="M24" t="s">
+    <row r="25" spans="11:14">
+      <c r="M25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="11:13">
-      <c r="L25" t="s">
+    <row r="26" spans="11:14">
+      <c r="L26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="11:13">
-      <c r="L27" t="s">
+    <row r="28" spans="11:14">
+      <c r="L28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="11:13">
-      <c r="M28" t="s">
+    <row r="29" spans="11:14">
+      <c r="M29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="11:13">
-      <c r="M29" t="s">
+    <row r="30" spans="11:14">
+      <c r="M30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="11:13">
-      <c r="K31" t="s">
+    <row r="32" spans="11:14">
+      <c r="K32" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="11:13">
-      <c r="L32" t="s">
+    <row r="33" spans="11:14">
+      <c r="L33" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="11:14">
-      <c r="M33" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="34" spans="11:14">
       <c r="M34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="11:14">
+      <c r="M35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="11:14">
-      <c r="L36" t="s">
+    <row r="37" spans="11:14">
+      <c r="L37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="11:14">
-      <c r="M37" t="s">
+    <row r="38" spans="11:14">
+      <c r="M38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="11:14">
-      <c r="N38" t="s">
+    <row r="39" spans="11:14">
+      <c r="N39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="11:14">
-      <c r="K40" t="s">
+    <row r="41" spans="11:14">
+      <c r="K41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="11:14">
-      <c r="L41" t="s">
+    <row r="42" spans="11:14">
+      <c r="L42" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="11:14">
-      <c r="M42" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="43" spans="11:14">
       <c r="M43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="11:14">
       <c r="M44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="11:14">
+      <c r="M45" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="11:14">
-      <c r="L46" t="s">
+    <row r="47" spans="11:14">
+      <c r="L47" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="11:14">
-      <c r="M47" t="s">
+    <row r="48" spans="11:14">
+      <c r="M48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="11:12">
-      <c r="K61" t="s">
+    <row r="62" spans="11:12">
+      <c r="K62" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="11:12">
-      <c r="L62" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="63" spans="11:12">
       <c r="L63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="11:12">
       <c r="L64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="12:12">
+      <c r="L65" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure compute and networking services.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure compute and networking services.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CA58C7-7925-4A9E-AABC-3F3AF6064FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D841BE4A-0DF9-43AE-BE15-D40DF2ADB5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="1365" windowWidth="17460" windowHeight="11295" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Describe Azure virtual machines" sheetId="1" r:id="rId1"/>
@@ -599,13 +599,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>389448</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>65565</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -631,6 +631,94 @@
         <a:xfrm>
           <a:off x="2057400" y="5953125"/>
           <a:ext cx="8619048" cy="8876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>579324</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2619375"/>
+          <a:ext cx="13609524" cy="3047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>331705</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>27946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5953125"/>
+          <a:ext cx="13361905" cy="5028571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -869,6 +957,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>398543</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="11191875"/>
+          <a:ext cx="12057143" cy="4428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1073,7 +1205,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87089AB1-9775-58BB-A305-3F30CD600AAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,7 +1249,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C63305-87B8-34E9-F845-85D4B537CC39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1293,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{581C6FB7-E995-8CE5-D618-38FE335757D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1210,7 +1342,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="What is OSI Model | 7 Layers Explained | Imperva">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9716EE-9129-0A14-67FE-BEEBCB12371F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,7 +1403,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1054F326-EF40-DF92-5647-3A392809874E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1452,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A753BC-B555-4F2E-8AE3-C9D441868212}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1501,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44716A6-03E4-6C47-5DC9-D60A521B5A38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,7 +1550,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE989677-1176-E18A-3450-3B4B2D58C6B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1594,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9649801A-8594-471A-9C73-EB550055BF39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1506,7 +1638,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3374749A-0306-0871-25DF-9FBC55021796}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1798,126 +1930,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25">
+    <row r="1" spans="1:2" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.25">
+    <row r="4" spans="1:2" ht="17.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
+    <row r="54" spans="1:4">
+      <c r="B54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="C16" t="s">
+    <row r="55" spans="1:4">
+      <c r="C55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="C17" t="s">
+    <row r="56" spans="1:4">
+      <c r="C56" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="C19" t="s">
+    <row r="58" spans="1:4">
+      <c r="C58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
+    <row r="60" spans="1:4">
+      <c r="B60" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="C22" t="s">
+    <row r="61" spans="1:4">
+      <c r="C61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="D23" t="s">
+    <row r="62" spans="1:4">
+      <c r="D62" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="D24" t="s">
+    <row r="63" spans="1:4">
+      <c r="D63" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="D25" t="s">
+    <row r="64" spans="1:4">
+      <c r="D64" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
-      <c r="C65" t="s">
+    <row r="104" spans="2:4">
+      <c r="C104" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
-      <c r="D66" t="s">
+    <row r="105" spans="2:4">
+      <c r="D105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
-      <c r="D67" t="s">
+    <row r="106" spans="2:4">
+      <c r="D106" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
-      <c r="D68" t="s">
+    <row r="107" spans="2:4">
+      <c r="D107" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
-      <c r="B70" t="s">
+    <row r="109" spans="2:4">
+      <c r="B109" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
-      <c r="C71" t="s">
+    <row r="110" spans="2:4">
+      <c r="C110" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
-      <c r="C72" t="s">
+    <row r="111" spans="2:4">
+      <c r="C111" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
-      <c r="C73" t="s">
+    <row r="112" spans="2:4">
+      <c r="C112" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="2:4">
-      <c r="C74" t="s">
+    <row r="113" spans="3:3">
+      <c r="C113" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1930,7 +2062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2FC64F-CC91-4701-BA7B-CA773572C978}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1939,13 +2071,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50DCCA3-5814-40C0-B821-9CF55DABD66A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1954,13 +2087,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD15FB2-EA51-4E9C-B537-4CAB3A7B4FCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -2055,6 +2189,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2101,7 +2236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
@@ -2235,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="I1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2267,7 +2402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="K8:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
@@ -2534,7 +2669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFF78BF-2A0F-47AE-BDF0-943ED60E231B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -2652,13 +2787,14 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D822AD-D572-45C0-9273-174C9C443851}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2673,6 +2809,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure compute and networking services.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure compute and networking services.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D841BE4A-0DF9-43AE-BE15-D40DF2ADB5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Describe Azure virtual machines" sheetId="1" r:id="rId1"/>
@@ -274,7 +273,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -284,7 +283,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -486,12 +485,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -503,7 +502,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1929,126 +1928,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C56" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D62" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D63" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="2:4">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C104" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="2:4">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D106" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D107" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B109" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C110" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="2:4">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C111" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="2:4">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C112" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="3:3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C113" t="s">
         <v>22</v>
       </c>
@@ -2062,14 +2061,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2078,14 +2077,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2094,96 +2093,96 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>134</v>
       </c>
@@ -2196,31 +2195,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2233,91 +2232,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -2331,31 +2330,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -2367,26 +2366,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I1:I3"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="9:9">
+    <row r="1" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="9:9">
+    <row r="2" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="9:9">
+    <row r="3" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I3" t="s">
         <v>48</v>
       </c>
@@ -2399,196 +2398,196 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K8:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="8" spans="11:12">
+    <row r="8" spans="11:12" x14ac:dyDescent="0.4">
       <c r="K8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="11:12">
+    <row r="9" spans="11:12" x14ac:dyDescent="0.4">
       <c r="L9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="11:12">
+    <row r="10" spans="11:12" x14ac:dyDescent="0.4">
       <c r="L10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="11:12">
+    <row r="11" spans="11:12" x14ac:dyDescent="0.4">
       <c r="L11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="11:12">
+    <row r="13" spans="11:12" x14ac:dyDescent="0.4">
       <c r="K13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="11:12">
+    <row r="14" spans="11:12" x14ac:dyDescent="0.4">
       <c r="L14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="11:12">
+    <row r="15" spans="11:12" x14ac:dyDescent="0.4">
       <c r="L15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="11:14">
+    <row r="17" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="11:14">
+    <row r="18" spans="11:14" x14ac:dyDescent="0.4">
       <c r="L18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="11:14">
+    <row r="19" spans="11:14" x14ac:dyDescent="0.4">
       <c r="M19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="11:14">
+    <row r="20" spans="11:14" x14ac:dyDescent="0.4">
       <c r="M20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="11:14">
+    <row r="21" spans="11:14" x14ac:dyDescent="0.4">
       <c r="N21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="11:14">
+    <row r="23" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="11:14">
+    <row r="24" spans="11:14" x14ac:dyDescent="0.4">
       <c r="L24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="11:14">
+    <row r="25" spans="11:14" x14ac:dyDescent="0.4">
       <c r="M25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="11:14">
+    <row r="26" spans="11:14" x14ac:dyDescent="0.4">
       <c r="L26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="11:14">
+    <row r="28" spans="11:14" x14ac:dyDescent="0.4">
       <c r="L28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="11:14">
+    <row r="29" spans="11:14" x14ac:dyDescent="0.4">
       <c r="M29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="11:14">
+    <row r="30" spans="11:14" x14ac:dyDescent="0.4">
       <c r="M30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="11:14">
+    <row r="32" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K32" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="11:14">
+    <row r="33" spans="11:14" x14ac:dyDescent="0.4">
       <c r="L33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="11:14">
+    <row r="34" spans="11:14" x14ac:dyDescent="0.4">
       <c r="M34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="11:14">
+    <row r="35" spans="11:14" x14ac:dyDescent="0.4">
       <c r="M35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="11:14">
+    <row r="37" spans="11:14" x14ac:dyDescent="0.4">
       <c r="L37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="11:14">
+    <row r="38" spans="11:14" x14ac:dyDescent="0.4">
       <c r="M38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="11:14">
+    <row r="39" spans="11:14" x14ac:dyDescent="0.4">
       <c r="N39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="11:14">
+    <row r="41" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="11:14">
+    <row r="42" spans="11:14" x14ac:dyDescent="0.4">
       <c r="L42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="11:14">
+    <row r="43" spans="11:14" x14ac:dyDescent="0.4">
       <c r="M43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="11:14">
+    <row r="44" spans="11:14" x14ac:dyDescent="0.4">
       <c r="M44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="11:14">
+    <row r="45" spans="11:14" x14ac:dyDescent="0.4">
       <c r="M45" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="11:14">
+    <row r="47" spans="11:14" x14ac:dyDescent="0.4">
       <c r="L47" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="11:14">
+    <row r="48" spans="11:14" x14ac:dyDescent="0.4">
       <c r="M48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="11:12">
+    <row r="62" spans="11:12" x14ac:dyDescent="0.4">
       <c r="K62" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="11:12">
+    <row r="63" spans="11:12" x14ac:dyDescent="0.4">
       <c r="L63" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="11:12">
+    <row r="64" spans="11:12" x14ac:dyDescent="0.4">
       <c r="L64" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="12:12">
+    <row r="65" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L65" t="s">
         <v>84</v>
       </c>
@@ -2602,61 +2601,61 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>94</v>
       </c>
@@ -2669,66 +2668,66 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -2736,52 +2735,52 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>117</v>
       </c>
@@ -2794,16 +2793,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>108</v>
       </c>
